--- a/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-care-mode.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-care-mode.xlsx
@@ -335,7 +335,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J19-ModePriseEnCharge-ROR/FHIR/JDV_J19-ModePriseEnCharge-ROR</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J19-ModePriseEnCharge-ROR/FHIR/JDV-J19-ModePriseEnCharge-ROR</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -676,7 +676,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="97.44921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="97.19140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-care-mode.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-care-mode.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice-care-mode</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-care-mode</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-care-mode.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-care-mode.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-care-mode</t>
+    <t>http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-healthcareservice-care-mode</t>
   </si>
   <si>
     <t>Version</t>
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>RORHealthCareServiceCareMode</t>
+    <t>RORHealthcareServiceCareMode</t>
   </si>
   <si>
     <t>Title</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08</t>
+    <t>2023-02-17T09:09:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-care-mode.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-care-mode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:09:31+00:00</t>
+    <t>2023-02-17T09:40:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-care-mode.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-care-mode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:40:52+00:00</t>
+    <t>2023-02-17T11:17:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
